--- a/selenium/test/data/Payments.xlsx
+++ b/selenium/test/data/Payments.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Akshay\Workspace\Python\Clone\selenium\selenium\test\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView activeTab="0" windowHeight="10350" windowWidth="23895"/>
   </bookViews>
   <sheets>
-    <sheet name="Payments" sheetId="1" r:id="rId1"/>
-    <sheet name="Refunds" sheetId="2" r:id="rId2"/>
-    <sheet name="Payments_1" sheetId="3" r:id="rId3"/>
+    <sheet name="Payments" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Refunds" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Payments_1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Type</t>
   </si>
@@ -116,12 +111,15 @@
     <t>true</t>
   </si>
   <si>
-    <t>MR101311</t>
+    <t>MR100013</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>12321312</t>
   </si>
   <si>
@@ -134,157 +132,581 @@
     <t>30</t>
   </si>
   <si>
+    <t>8120449</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>DW100200</t>
+  </si>
+  <si>
+    <t>P@ss1234</t>
+  </si>
+  <si>
+    <t>Testng 1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>00000000006584866</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:16:07&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120449&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:16:07&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584866&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584866&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584866&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;30E4AB5E4470EC68D293A22F4AE07778&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120449&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;100.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>EPG-PMT-000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8120450</t>
+  </si>
+  <si>
+    <t>CCDUNREG</t>
+  </si>
+  <si>
+    <t>Testng 3</t>
+  </si>
+  <si>
+    <t>5123456789012346</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>akshay.zaveri@emaratech.ae</t>
+  </si>
+  <si>
+    <t>00000000006584868</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:16:56&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120450&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:16:56&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584868&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584868&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584868&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;8E76E20D11671E593F0FAB69C3EAAEEA&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120450&lt;/OrderID&gt;&lt;PaymentMode&gt;CCD&lt;/PaymentMode&gt;&lt;CreditAmount&gt;150.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;PaymentRefNo&gt;2000001801&lt;/PaymentRefNo&gt;&lt;PayAuthCode&gt;807705543077&lt;/PayAuthCode&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8120451</t>
+  </si>
+  <si>
+    <t>00000000006584869</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:07&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120451&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:07&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584869&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584869&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584869&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;C9DD86702D0E56848731B9A45676A5A0&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120451&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;100.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>8120452</t>
+  </si>
+  <si>
+    <t>CCD</t>
+  </si>
+  <si>
+    <t>Testng 2</t>
+  </si>
+  <si>
+    <t>00000000006584872</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:19&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120452&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:19&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584872&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584872&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584872&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;CE8CD579FB0E18DBBD22A99BC107B0A5&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120452&lt;/OrderID&gt;&lt;PaymentMode&gt;CCD&lt;/PaymentMode&gt;&lt;CreditAmount&gt;120.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;PaymentRefNo&gt;2000000993&lt;/PaymentRefNo&gt;&lt;PayAuthCode&gt;807705543079&lt;/PayAuthCode&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>paymentSequence</t>
+  </si>
+  <si>
+    <t>refundAmount</t>
+  </si>
+  <si>
+    <t>refundRemark</t>
+  </si>
+  <si>
+    <t>refundSourceType</t>
+  </si>
+  <si>
+    <t>refundWalletId</t>
+  </si>
+  <si>
+    <t>refundIBANBeneName</t>
+  </si>
+  <si>
+    <t>refundIBANBankCountry</t>
+  </si>
+  <si>
+    <t>refundIBANNumber</t>
+  </si>
+  <si>
+    <t>noqodiRevRef</t>
+  </si>
+  <si>
+    <t>reversalResponseXML</t>
+  </si>
+  <si>
+    <t>reversalErrorCode</t>
+  </si>
+  <si>
+    <t>REFUND</t>
+  </si>
+  <si>
+    <t>DW100029</t>
+  </si>
+  <si>
+    <t>6584873</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:37&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120449&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:37&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584866&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584873&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584866&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584873&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;100.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>EPG-REV-000</t>
+  </si>
+  <si>
+    <t>BKT</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>AE123456789012345678901</t>
+  </si>
+  <si>
+    <t>6584874</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:45&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120450&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:45&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584868&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584874&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584868&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584874&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:53&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120451&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:53&lt;/DateTime&gt;&lt;Status&gt;F&lt;/Status&gt;&lt;ErrorCode&gt;ERR_REFUND_NOT_CC&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Refund declined by noqodi, as payment was not initiated via credit card.&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584869&lt;/Trace&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes/&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>ERR_REFUND_NOT_CC</t>
+  </si>
+  <si>
+    <t>6584875</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:18:00&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120451&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:18:00&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584869&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584875&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584869&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584875&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>6584876</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:18:08&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120452&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:18:08&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584872&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584876&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584872&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584876&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
     <t>8120404</t>
   </si>
   <si>
-    <t>ECA</t>
-  </si>
-  <si>
-    <t>DW100200</t>
-  </si>
-  <si>
-    <t>P@ss1234</t>
-  </si>
-  <si>
-    <t>Testng 1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>00000000006584753</t>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;13/03/2018 22:11:49&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120404&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;13/03/2018 22:11:49&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584753&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584753&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584753&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;2BA07550BBA7194AA9F2F894466C4507&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120404&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;100.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
-    <t>paymentSequence</t>
-  </si>
-  <si>
-    <t>refundAmount</t>
-  </si>
-  <si>
-    <t>refundRemark</t>
-  </si>
-  <si>
-    <t>refundSourceType</t>
-  </si>
-  <si>
-    <t>refundWalletId</t>
-  </si>
-  <si>
-    <t>refundIBANBeneName</t>
-  </si>
-  <si>
-    <t>refundIBANBankCountry</t>
-  </si>
-  <si>
-    <t>refundIBANNumber</t>
-  </si>
-  <si>
-    <t>noqodiRevRef</t>
-  </si>
-  <si>
-    <t>reversalResponseXML</t>
-  </si>
-  <si>
-    <t>reversalErrorCode</t>
-  </si>
-  <si>
-    <t>REFUND</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>BKT</t>
-  </si>
-  <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>AE123456789012345678901</t>
-  </si>
-  <si>
-    <t>CCD</t>
-  </si>
-  <si>
-    <t>MR100013</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>CCDUNREG</t>
-  </si>
-  <si>
-    <t>Testng 3</t>
-  </si>
-  <si>
-    <t>5123456789012346</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>akshay.zaveri@emaratech.ae</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Testng 2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>DDB</t>
-  </si>
-  <si>
-    <t>CBD</t>
-  </si>
-  <si>
-    <t>DW100029</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="166"/>
+  </numFmts>
+  <fonts count="22">
     <font>
+      <name val="Arial"/>
+      <charset val="134"/>
       <sz val="10"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <charset val="134"/>
+      <color rgb="FF222222"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="33">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -292,27 +714,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="166"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="3" fillId="10" fontId="8" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="6" fillId="26" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="4" fillId="14" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0"/>
+    <xf borderId="5" fillId="19" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="2" numFmtId="0"/>
+    <xf borderId="4" fillId="19" fontId="13" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -568,31 +1176,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" customWidth="1"/>
+    <col customWidth="1" max="5" min="5" width="13.1428571428571"/>
+    <col customWidth="1" max="8" min="8" width="12.2857142857143"/>
+    <col customWidth="1" max="10" min="10" width="10.5714285714286"/>
+    <col customWidth="1" max="11" min="11" width="14.7142857142857"/>
+    <col customWidth="1" max="15" min="15" width="10.8571428571429"/>
+    <col customWidth="1" max="28" min="28" width="9.142857142857141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,11 +1287,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
@@ -691,240 +1300,825 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P4" t="s">
         <v>42</v>
       </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>42</v>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.60902777777777795" bottom="0.36875000000000002" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col customWidth="1" max="4" min="4" width="17.8571428571429"/>
+    <col customWidth="1" max="5" min="5" width="14"/>
+    <col customWidth="1" max="7" min="6" width="12.2857142857143"/>
+    <col customWidth="1" max="10" min="8" width="14.8571428571429"/>
+    <col customWidth="1" max="11" min="11" width="12.4285714285714"/>
+    <col customWidth="1" max="12" min="12" width="12.7142857142857"/>
+    <col customWidth="1" max="15" min="15" width="25"/>
+    <col customWidth="1" max="17" min="17" width="20.2857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="8" min="8" width="12.2857142857143"/>
+    <col customWidth="1" max="10" min="10" width="10.5714285714286"/>
+    <col customWidth="1" max="11" min="11" width="14.7142857142857"/>
+    <col customWidth="1" max="28" min="28" width="9.142857142857141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +2204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1024,84 +2218,84 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -1110,7 +2304,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1119,75 +2313,75 @@
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z3" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AA3" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -1196,84 +2390,84 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1282,85 +2476,89 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="Z5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.60902777777777795" bottom="0.36875000000000002" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/selenium/test/data/Payments.xlsx
+++ b/selenium/test/data/Payments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" windowHeight="10350" windowWidth="23895"/>
   </bookViews>
   <sheets>
-    <sheet name="Payments" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Refunds" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Payments_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Payments" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Refunds" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Payments_1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -132,7 +132,7 @@
     <t>30</t>
   </si>
   <si>
-    <t>8120449</t>
+    <t>8120453</t>
   </si>
   <si>
     <t>ECA</t>
@@ -150,10 +150,10 @@
     <t>None</t>
   </si>
   <si>
-    <t>00000000006584866</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:16:07&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120449&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:16:07&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584866&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584866&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584866&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;30E4AB5E4470EC68D293A22F4AE07778&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120449&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;100.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>00000000006584877</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:09:30&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120453&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:09:30&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584877&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584877&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584877&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;7586BAB1B0ED00D12798F45ACE1EED6C&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120453&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;100.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>EPG-PMT-000</t>
@@ -168,7 +168,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>8120450</t>
+    <t>8120454</t>
   </si>
   <si>
     <t>CCDUNREG</t>
@@ -195,22 +195,22 @@
     <t>akshay.zaveri@emaratech.ae</t>
   </si>
   <si>
-    <t>00000000006584868</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:16:56&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120450&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:16:56&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584868&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584868&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584868&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;8E76E20D11671E593F0FAB69C3EAAEEA&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120450&lt;/OrderID&gt;&lt;PaymentMode&gt;CCD&lt;/PaymentMode&gt;&lt;CreditAmount&gt;150.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;PaymentRefNo&gt;2000001801&lt;/PaymentRefNo&gt;&lt;PayAuthCode&gt;807705543077&lt;/PayAuthCode&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>00000000006584879</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:10:14&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120454&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:10:14&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584879&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584879&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584879&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;4AAC75E661674043B194A04E9408D543&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120454&lt;/OrderID&gt;&lt;PaymentMode&gt;CCD&lt;/PaymentMode&gt;&lt;CreditAmount&gt;150.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;PaymentRefNo&gt;2000001802&lt;/PaymentRefNo&gt;&lt;PayAuthCode&gt;807706543918&lt;/PayAuthCode&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>8120451</t>
-  </si>
-  <si>
-    <t>00000000006584869</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:07&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120451&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:07&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584869&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584869&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584869&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;C9DD86702D0E56848731B9A45676A5A0&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120451&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;100.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>8120455</t>
+  </si>
+  <si>
+    <t>00000000006584880</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:10:24&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120455&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:10:24&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584880&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584880&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584880&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;06F8F3A1ECC6C78E7B2D480753FEF3ED&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120455&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;100.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>4</t>
@@ -222,7 +222,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>8120452</t>
+    <t>8120456</t>
   </si>
   <si>
     <t>CCD</t>
@@ -231,10 +231,10 @@
     <t>Testng 2</t>
   </si>
   <si>
-    <t>00000000006584872</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:19&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120452&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:19&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584872&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584872&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584872&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;CE8CD579FB0E18DBBD22A99BC107B0A5&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120452&lt;/OrderID&gt;&lt;PaymentMode&gt;CCD&lt;/PaymentMode&gt;&lt;CreditAmount&gt;120.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;PaymentRefNo&gt;2000000993&lt;/PaymentRefNo&gt;&lt;PayAuthCode&gt;807705543079&lt;/PayAuthCode&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>00000000006584883</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Rental Dispute Center&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:10:36&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120456&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:10:36&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584883&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006584883&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006584883&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;A30F21B244E151427F0CB514C0C66A73&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8120456&lt;/OrderID&gt;&lt;PaymentMode&gt;CCD&lt;/PaymentMode&gt;&lt;CreditAmount&gt;120.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;PaymentRefNo&gt;2000000994&lt;/PaymentRefNo&gt;&lt;PayAuthCode&gt;807706543922&lt;/PayAuthCode&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>5</t>
@@ -285,10 +285,10 @@
     <t>DW100029</t>
   </si>
   <si>
-    <t>6584873</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:37&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120449&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:37&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584866&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584873&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584866&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584873&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;100.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>6584884</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:10:51&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120453&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:10:51&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584877&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584884&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584877&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584884&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;100.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>EPG-REV-000</t>
@@ -303,28 +303,28 @@
     <t>AE123456789012345678901</t>
   </si>
   <si>
-    <t>6584874</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:45&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120450&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:45&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584868&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584874&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584868&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584874&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:17:53&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120451&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:17:53&lt;/DateTime&gt;&lt;Status&gt;F&lt;/Status&gt;&lt;ErrorCode&gt;ERR_REFUND_NOT_CC&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Refund declined by noqodi, as payment was not initiated via credit card.&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584869&lt;/Trace&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes/&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>6584885</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:10:58&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120454&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:10:58&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584879&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584885&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584879&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584885&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:11:06&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120455&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:11:06&lt;/DateTime&gt;&lt;Status&gt;F&lt;/Status&gt;&lt;ErrorCode&gt;ERR_REFUND_NOT_CC&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Refund declined by noqodi, as payment was not initiated via credit card.&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006584880&lt;/Trace&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes/&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>ERR_REFUND_NOT_CC</t>
   </si>
   <si>
-    <t>6584875</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:18:00&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120451&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:18:00&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584869&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584875&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584869&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584875&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
-  </si>
-  <si>
-    <t>6584876</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 22:18:08&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120452&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 22:18:08&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584872&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584876&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584872&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584876&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>6584886</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:11:32&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120455&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:11:32&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584880&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584886&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584880&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584886&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>6584887</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;17/03/2018 23:11:39&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8120456&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;17/03/2018 23:11:39&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6584883&lt;/Trace&gt;&lt;TransactionRefNo&gt;6584887&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6584883&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6584887&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;0.00&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>8120404</t>
